--- a/Data_Cleansing/OXO-5FI635C Augusta_anomaly_report/xlsx/correlations/OXO-5FI635C Augusta corr.xlsx
+++ b/Data_Cleansing/OXO-5FI635C Augusta_anomaly_report/xlsx/correlations/OXO-5FI635C Augusta corr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,95 +883,97 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>OXO-5TIC607 Augusta</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2705056864802068</v>
+        <v>-0.2229472219528052</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>OXO-5FIC636A Augusta</t>
+          <t>OXO-5TIC607 Augusta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.3029505006721658</v>
+        <v>-0.2705056864802068</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>OXO-5LI654E Augusta</t>
+          <t>OXO-5FIC636A Augusta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.3285401347619252</v>
+        <v>-0.3029505006721658</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>OXO-5TIC606 Augusta</t>
+          <t>OXO-5LI654E Augusta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.4189734825123146</v>
+        <v>-0.3285401347619252</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>OXO-5TIC604 Augusta</t>
+          <t>OXO-5TIC606 Augusta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.4928484472016879</v>
+        <v>-0.4189734825123146</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>OXO-5TIC605 Augusta</t>
+          <t>OXO-5TIC604 Augusta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.5410639737455973</v>
+        <v>-0.4928484472016879</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>OXO-5TIC603 Augusta</t>
+          <t>OXO-5TIC605 Augusta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.6068939498853365</v>
+        <v>-0.5410639737455973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>OXO-5TIC602 Augusta</t>
+          <t>OXO-5TIC603 Augusta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.7047156520568504</v>
+        <v>-0.6068939498853365</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>OXO-5FIC603 Augusta</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>OXO-5TIC602 Augusta</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.7047156520568504</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>OXO-5FIC607 Augusta</t>
+          <t>OXO-5FIC603 Augusta</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -979,7 +981,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>OXO-5FIC609A Augusta</t>
+          <t>OXO-5FIC607 Augusta</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -987,10 +989,18 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
+          <t>OXO-5FIC609A Augusta</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
           <t>OXO-5LI652F Augusta</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
